--- a/Figure4/Fig4a_pregnancy_ghrelin_bar.xlsx
+++ b/Figure4/Fig4a_pregnancy_ghrelin_bar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murrell\OneDrive - Washington University in St. Louis\Documents\Github\Ghrelinpaper\Murrell2025\Figure4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F1DF90D-E101-47BC-89B1-593A4616A868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F9031-120F-4E96-A60B-8F2C0A96991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="1725" windowWidth="24615" windowHeight="12660" xr2:uid="{8D38580D-2FBE-48B5-B801-086B1E048811}"/>
+    <workbookView xWindow="33180" yWindow="735" windowWidth="20895" windowHeight="13905" xr2:uid="{8D38580D-2FBE-48B5-B801-086B1E048811}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Baseline</t>
   </si>
   <si>
-    <t>anticipitory</t>
-  </si>
-  <si>
-    <t>chow</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -120,6 +114,9 @@
   </si>
   <si>
     <t>P15_mouse8</t>
+  </si>
+  <si>
+    <t>Ghrelin</t>
   </si>
 </sst>
 </file>
@@ -505,89 +502,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DBE31B-3C49-4AAE-8E16-E1999D199B54}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>25</v>
-      </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -595,225 +592,183 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.123573478</v>
+        <v>0.16677646800000001</v>
       </c>
       <c r="C2" s="1">
-        <v>6.5895863999999998E-2</v>
+        <v>0.15717503099999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.45113645299999999</v>
+        <v>1.8619650000000001E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.12862897400000001</v>
+        <v>2.3413918999999998E-2</v>
       </c>
       <c r="F2" s="1">
-        <v>-0.188180183</v>
+        <v>3.6329346999999998E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>-0.199753767</v>
+        <v>5.2991070000000001E-2</v>
       </c>
       <c r="H2" s="1">
-        <v>8.4379560000000006E-2</v>
+        <v>-2.1030547E-2</v>
       </c>
       <c r="I2" s="1">
-        <v>-0.110792829</v>
+        <v>0.177477366</v>
       </c>
       <c r="J2" s="1">
-        <v>-7.6166025999999998E-2</v>
+        <v>8.8631149000000006E-2</v>
       </c>
       <c r="K2" s="1">
-        <v>1.4197830999999999E-2</v>
+        <v>7.9860519000000005E-2</v>
       </c>
       <c r="L2" s="1">
-        <v>8.4599299999999996E-4</v>
+        <v>1.6753626000000001E-2</v>
       </c>
       <c r="M2" s="1">
-        <v>-0.33573662799999998</v>
+        <v>1.0256825000000001E-2</v>
       </c>
       <c r="N2" s="1">
-        <v>0.129086222</v>
+        <v>6.2640475000000001E-2</v>
       </c>
       <c r="O2" s="1">
-        <v>-1.03719E-4</v>
+        <v>-1.0392864999999999E-2</v>
       </c>
       <c r="P2" s="1">
-        <v>0.15530471800000001</v>
+        <v>1.4150576999999999E-2</v>
       </c>
       <c r="Q2" s="1">
-        <v>-0.100115441</v>
+        <v>9.9366763999999996E-2</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1">
-        <v>6.6987142E-2</v>
+        <v>0.203397509</v>
       </c>
       <c r="T2" s="1">
-        <v>-5.0094439999999997E-2</v>
+        <v>4.1585900000000002E-3</v>
       </c>
       <c r="U2" s="1">
-        <v>-0.215280786</v>
+        <v>2.8264340999999998E-2</v>
       </c>
       <c r="V2" s="1">
-        <v>-0.12173848800000001</v>
+        <v>6.4509737999999997E-2</v>
       </c>
       <c r="W2" s="1">
-        <v>-0.12173850899999999</v>
+        <v>-3.0144170000000001E-2</v>
       </c>
       <c r="X2" s="1">
-        <v>9.8521440000000002E-3</v>
+        <v>2.8945769E-2</v>
       </c>
       <c r="Y2" s="1">
-        <v>-0.10289870199999999</v>
+        <v>4.0914898999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
-        <v>-1.73364355</v>
+        <v>4.0623738039999999</v>
       </c>
       <c r="C3" s="1">
-        <v>-1.109074417</v>
+        <v>3.0401548479999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.54303819399999997</v>
+        <v>4.5006946880000003</v>
       </c>
       <c r="E3" s="1">
-        <v>-1.4289811649999999</v>
+        <v>2.8936352470000002</v>
       </c>
       <c r="F3" s="1">
-        <v>-4.4762159119999998</v>
+        <v>5.5285483580000001</v>
       </c>
       <c r="G3" s="1">
-        <v>-1.2905132429999999</v>
+        <v>4.8330075079999997</v>
       </c>
       <c r="H3" s="1">
-        <v>-1.501401481</v>
+        <v>2.7148319000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-2.2294151769999999</v>
+        <v>5.0010581219999999</v>
       </c>
       <c r="J3" s="1">
-        <v>-1.075831</v>
+        <v>5.2025326649999997</v>
       </c>
       <c r="K3" s="1">
-        <v>-1.9324113000000001</v>
+        <v>2.4783311129999999</v>
       </c>
       <c r="L3" s="1">
-        <v>-1.3025754</v>
+        <v>6.4864084149999996</v>
       </c>
       <c r="M3" s="1">
-        <v>-1.8413071000000001</v>
+        <v>3.7103498510000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-0.5163449</v>
+        <v>5.3031178240000001</v>
       </c>
       <c r="O3" s="1">
-        <v>-1.0470417000000001</v>
+        <v>5.9582267660000001</v>
       </c>
       <c r="P3" s="1">
-        <v>-1.6029861999999999</v>
+        <v>4.3305266859999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>-1.1714422</v>
+        <v>8.4393360949999998</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1">
-        <v>0.38341308800000001</v>
+        <v>1.4015837769999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.53284139500000005</v>
+        <v>5.8298905330000004</v>
       </c>
       <c r="U3" s="1">
-        <v>-0.95560444899999997</v>
+        <v>4.1458899349999996</v>
       </c>
       <c r="V3" s="1">
-        <v>-0.22930353000000001</v>
+        <v>6.1085246700000004</v>
       </c>
       <c r="W3" s="1">
-        <v>-4.5745968999999997E-2</v>
+        <v>1.0277031729999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-1.2239082910000001</v>
+        <v>3.347925617</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.41159480799999998</v>
+        <v>0.67712341300000001</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-1.78983</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-4.0332499999999998</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-0.93964999999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-2.9090600000000002</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-4.2434599999999998</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-1.3411599999999999</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-1.5874900000000001</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-2.3809999999999998</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-1.0926191999999999</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-2.9658088999999999</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1.5346495</v>
-      </c>
-      <c r="M4" s="1">
-        <v>-2.7441029000000001</v>
-      </c>
-      <c r="N4" s="1">
-        <v>-2.2203040000000001</v>
-      </c>
-      <c r="O4" s="1">
-        <v>-3.9930039000000002</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-2.6046543</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>-2.1919963999999998</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1">
-        <v>0.81980755000000005</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.16441511</v>
-      </c>
-      <c r="U4" s="1">
-        <v>-0.29213640000000002</v>
-      </c>
-      <c r="V4" s="1">
-        <v>-1.1993088000000001</v>
-      </c>
-      <c r="W4" s="1">
-        <v>-1.7572656</v>
-      </c>
-      <c r="X4" s="1">
-        <v>-0.63798100000000002</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>-2.8285695999999998</v>
-      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
